--- a/biology/Zoologie/Acholades_asteris/Acholades_asteris.xlsx
+++ b/biology/Zoologie/Acholades_asteris/Acholades_asteris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acholades, Acholadidae
 Acholades asteris est une espèce de vers plats marins, la seule du genre Acholades et de la famille des Acholadidae. Cette famille appartient au sous-ordre des Dalytyphloplanida et à l'ordre des Rhabdocoela. 
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Acholades asteris est parasite de Coscinasterias calamaria, une étoile de mer[Publication originale 1].
 Elle se rencontre sur les côtes de Tasmanie.
@@ -544,12 +558,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les noms valides complets (avec auteur) de ces taxons sont :
-pour la famille : Acholadidae Hickman &amp; Olsen, 1955[1]
-pour l'unique genre : Acholades Hickman &amp; Olsen, 1955[1]
-pour l'unique espèce : Acholades asteris Hickman &amp; Olsen, 1955[1]</t>
+pour la famille : Acholadidae Hickman &amp; Olsen, 1955
+pour l'unique genre : Acholades Hickman &amp; Olsen, 1955
+pour l'unique espèce : Acholades asteris Hickman &amp; Olsen, 1955</t>
         </is>
       </c>
     </row>
